--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntn2-Nrcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntn2-Nrcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.04670566666666667</v>
+        <v>0.030141</v>
       </c>
       <c r="H2">
-        <v>0.140117</v>
+        <v>0.090423</v>
       </c>
       <c r="I2">
-        <v>0.4123016351764502</v>
+        <v>0.2387784203438168</v>
       </c>
       <c r="J2">
-        <v>0.4123016351764502</v>
+        <v>0.2387784203438169</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.727013</v>
+        <v>0.1623456666666667</v>
       </c>
       <c r="N2">
-        <v>2.181039</v>
+        <v>0.487037</v>
       </c>
       <c r="O2">
-        <v>0.1995787782648047</v>
+        <v>0.07831009050961847</v>
       </c>
       <c r="P2">
-        <v>0.1995787782648048</v>
+        <v>0.07831009050961847</v>
       </c>
       <c r="Q2">
-        <v>0.03395562684033334</v>
+        <v>0.004893260739</v>
       </c>
       <c r="R2">
-        <v>0.305600641563</v>
+        <v>0.044039346651</v>
       </c>
       <c r="S2">
-        <v>0.08228665662509717</v>
+        <v>0.01869875970886802</v>
       </c>
       <c r="T2">
-        <v>0.08228665662509718</v>
+        <v>0.01869875970886803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.04670566666666667</v>
+        <v>0.030141</v>
       </c>
       <c r="H3">
-        <v>0.140117</v>
+        <v>0.090423</v>
       </c>
       <c r="I3">
-        <v>0.4123016351764502</v>
+        <v>0.2387784203438168</v>
       </c>
       <c r="J3">
-        <v>0.4123016351764502</v>
+        <v>0.2387784203438169</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1623456666666667</v>
+        <v>1.897446</v>
       </c>
       <c r="N3">
-        <v>0.487037</v>
+        <v>5.692337999999999</v>
       </c>
       <c r="O3">
-        <v>0.04456694695957097</v>
+        <v>0.9152641462380487</v>
       </c>
       <c r="P3">
-        <v>0.04456694695957097</v>
+        <v>0.9152641462380487</v>
       </c>
       <c r="Q3">
-        <v>0.007582462592111112</v>
+        <v>0.057190919886</v>
       </c>
       <c r="R3">
-        <v>0.068242163329</v>
+        <v>0.514718278974</v>
       </c>
       <c r="S3">
-        <v>0.01837502510625324</v>
+        <v>0.2185453270360534</v>
       </c>
       <c r="T3">
-        <v>0.01837502510625324</v>
+        <v>0.2185453270360535</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,51 +661,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.04670566666666667</v>
+        <v>0.030141</v>
       </c>
       <c r="H4">
-        <v>0.140117</v>
+        <v>0.090423</v>
       </c>
       <c r="I4">
-        <v>0.4123016351764502</v>
+        <v>0.2387784203438168</v>
       </c>
       <c r="J4">
-        <v>0.4123016351764502</v>
+        <v>0.2387784203438169</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.743296333333333</v>
+        <v>0.01332133333333333</v>
       </c>
       <c r="N4">
-        <v>8.229889</v>
+        <v>0.039964</v>
       </c>
       <c r="O4">
-        <v>0.7530865756526847</v>
+        <v>0.006425763252332764</v>
       </c>
       <c r="P4">
-        <v>0.7530865756526847</v>
+        <v>0.006425763252332764</v>
       </c>
       <c r="Q4">
-        <v>0.1281274841125556</v>
+        <v>0.000401518308</v>
       </c>
       <c r="R4">
-        <v>1.153147357013</v>
+        <v>0.003613664772</v>
       </c>
       <c r="S4">
-        <v>0.3104988265710353</v>
+        <v>0.001534333598895364</v>
       </c>
       <c r="T4">
-        <v>0.3104988265710353</v>
+        <v>0.001534333598895365</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.04670566666666667</v>
+        <v>0.027635</v>
       </c>
       <c r="H5">
-        <v>0.140117</v>
+        <v>0.08290500000000001</v>
       </c>
       <c r="I5">
-        <v>0.4123016351764502</v>
+        <v>0.2189257704190763</v>
       </c>
       <c r="J5">
-        <v>0.4123016351764502</v>
+        <v>0.2189257704190763</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.010082</v>
+        <v>0.1623456666666667</v>
       </c>
       <c r="N5">
-        <v>0.030246</v>
+        <v>0.487037</v>
       </c>
       <c r="O5">
-        <v>0.002767699122939702</v>
+        <v>0.07831009050961847</v>
       </c>
       <c r="P5">
-        <v>0.002767699122939702</v>
+        <v>0.07831009050961847</v>
       </c>
       <c r="Q5">
-        <v>0.0004708865313333333</v>
+        <v>0.004486422498333334</v>
       </c>
       <c r="R5">
-        <v>0.004237978782</v>
+        <v>0.040377802485</v>
       </c>
       <c r="S5">
-        <v>0.001141126874064466</v>
+        <v>0.01714409689640582</v>
       </c>
       <c r="T5">
-        <v>0.001141126874064466</v>
+        <v>0.01714409689640582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,43 +788,43 @@
         <v>0.027635</v>
       </c>
       <c r="H6">
-        <v>0.08290499999999999</v>
+        <v>0.08290500000000001</v>
       </c>
       <c r="I6">
-        <v>0.2439523188785343</v>
+        <v>0.2189257704190763</v>
       </c>
       <c r="J6">
-        <v>0.2439523188785344</v>
+        <v>0.2189257704190763</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.727013</v>
+        <v>1.897446</v>
       </c>
       <c r="N6">
-        <v>2.181039</v>
+        <v>5.692337999999999</v>
       </c>
       <c r="O6">
-        <v>0.1995787782648047</v>
+        <v>0.9152641462380487</v>
       </c>
       <c r="P6">
-        <v>0.1995787782648048</v>
+        <v>0.9152641462380487</v>
       </c>
       <c r="Q6">
-        <v>0.020091004255</v>
+        <v>0.05243592021</v>
       </c>
       <c r="R6">
-        <v>0.180819038295</v>
+        <v>0.47192328189</v>
       </c>
       <c r="S6">
-        <v>0.04868770575664395</v>
+        <v>0.2003749083521229</v>
       </c>
       <c r="T6">
-        <v>0.04868770575664395</v>
+        <v>0.200374908352123</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,48 +850,48 @@
         <v>0.027635</v>
       </c>
       <c r="H7">
-        <v>0.08290499999999999</v>
+        <v>0.08290500000000001</v>
       </c>
       <c r="I7">
-        <v>0.2439523188785343</v>
+        <v>0.2189257704190763</v>
       </c>
       <c r="J7">
-        <v>0.2439523188785344</v>
+        <v>0.2189257704190763</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1623456666666667</v>
+        <v>0.01332133333333333</v>
       </c>
       <c r="N7">
-        <v>0.487037</v>
+        <v>0.039964</v>
       </c>
       <c r="O7">
-        <v>0.04456694695957097</v>
+        <v>0.006425763252332764</v>
       </c>
       <c r="P7">
-        <v>0.04456694695957097</v>
+        <v>0.006425763252332764</v>
       </c>
       <c r="Q7">
-        <v>0.004486422498333332</v>
+        <v>0.0003681350466666667</v>
       </c>
       <c r="R7">
-        <v>0.040377802485</v>
+        <v>0.00331321542</v>
       </c>
       <c r="S7">
-        <v>0.01087221005612398</v>
+        <v>0.00140676517054754</v>
       </c>
       <c r="T7">
-        <v>0.01087221005612398</v>
+        <v>0.00140676517054754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.027635</v>
+        <v>0.068454</v>
       </c>
       <c r="H8">
-        <v>0.08290499999999999</v>
+        <v>0.205362</v>
       </c>
       <c r="I8">
-        <v>0.2439523188785343</v>
+        <v>0.5422958092371069</v>
       </c>
       <c r="J8">
-        <v>0.2439523188785344</v>
+        <v>0.5422958092371069</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.743296333333333</v>
+        <v>0.1623456666666667</v>
       </c>
       <c r="N8">
-        <v>8.229889</v>
+        <v>0.487037</v>
       </c>
       <c r="O8">
-        <v>0.7530865756526847</v>
+        <v>0.07831009050961847</v>
       </c>
       <c r="P8">
-        <v>0.7530865756526847</v>
+        <v>0.07831009050961847</v>
       </c>
       <c r="Q8">
-        <v>0.07581099417166666</v>
+        <v>0.011113210266</v>
       </c>
       <c r="R8">
-        <v>0.682298947545</v>
+        <v>0.100018892394</v>
       </c>
       <c r="S8">
-        <v>0.1837172164467672</v>
+        <v>0.04246723390434463</v>
       </c>
       <c r="T8">
-        <v>0.1837172164467672</v>
+        <v>0.04246723390434463</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -971,46 +971,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.027635</v>
+        <v>0.068454</v>
       </c>
       <c r="H9">
-        <v>0.08290499999999999</v>
+        <v>0.205362</v>
       </c>
       <c r="I9">
-        <v>0.2439523188785343</v>
+        <v>0.5422958092371069</v>
       </c>
       <c r="J9">
-        <v>0.2439523188785344</v>
+        <v>0.5422958092371069</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.010082</v>
+        <v>1.897446</v>
       </c>
       <c r="N9">
-        <v>0.030246</v>
+        <v>5.692337999999999</v>
       </c>
       <c r="O9">
-        <v>0.002767699122939702</v>
+        <v>0.9152641462380487</v>
       </c>
       <c r="P9">
-        <v>0.002767699122939702</v>
+        <v>0.9152641462380487</v>
       </c>
       <c r="Q9">
-        <v>0.0002786160699999999</v>
+        <v>0.129887768484</v>
       </c>
       <c r="R9">
-        <v>0.00250754463</v>
+        <v>1.168989916356</v>
       </c>
       <c r="S9">
-        <v>0.0006751866189992258</v>
+        <v>0.4963439108498723</v>
       </c>
       <c r="T9">
-        <v>0.0006751866189992259</v>
+        <v>0.4963439108498723</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1033,232 +1033,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.03893966666666667</v>
+        <v>0.068454</v>
       </c>
       <c r="H10">
-        <v>0.116819</v>
+        <v>0.205362</v>
       </c>
       <c r="I10">
-        <v>0.3437460459450155</v>
+        <v>0.5422958092371069</v>
       </c>
       <c r="J10">
-        <v>0.3437460459450155</v>
+        <v>0.5422958092371069</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.727013</v>
+        <v>0.01332133333333333</v>
       </c>
       <c r="N10">
-        <v>2.181039</v>
+        <v>0.039964</v>
       </c>
       <c r="O10">
-        <v>0.1995787782648047</v>
+        <v>0.006425763252332764</v>
       </c>
       <c r="P10">
-        <v>0.1995787782648048</v>
+        <v>0.006425763252332764</v>
       </c>
       <c r="Q10">
-        <v>0.02830964388233334</v>
+        <v>0.0009118985519999999</v>
       </c>
       <c r="R10">
-        <v>0.254786794941</v>
+        <v>0.008207086968</v>
       </c>
       <c r="S10">
-        <v>0.06860441588306362</v>
+        <v>0.00348466448288986</v>
       </c>
       <c r="T10">
-        <v>0.06860441588306364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.03893966666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.116819</v>
-      </c>
-      <c r="I11">
-        <v>0.3437460459450155</v>
-      </c>
-      <c r="J11">
-        <v>0.3437460459450155</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.1623456666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.487037</v>
-      </c>
-      <c r="O11">
-        <v>0.04456694695957097</v>
-      </c>
-      <c r="P11">
-        <v>0.04456694695957097</v>
-      </c>
-      <c r="Q11">
-        <v>0.006321686144777778</v>
-      </c>
-      <c r="R11">
-        <v>0.056895175303</v>
-      </c>
-      <c r="S11">
-        <v>0.01531971179719375</v>
-      </c>
-      <c r="T11">
-        <v>0.01531971179719375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.03893966666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.116819</v>
-      </c>
-      <c r="I12">
-        <v>0.3437460459450155</v>
-      </c>
-      <c r="J12">
-        <v>0.3437460459450155</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>2.743296333333333</v>
-      </c>
-      <c r="N12">
-        <v>8.229889</v>
-      </c>
-      <c r="O12">
-        <v>0.7530865756526847</v>
-      </c>
-      <c r="P12">
-        <v>0.7530865756526847</v>
-      </c>
-      <c r="Q12">
-        <v>0.1068230447878889</v>
-      </c>
-      <c r="R12">
-        <v>0.961407403091</v>
-      </c>
-      <c r="S12">
-        <v>0.2588705326348821</v>
-      </c>
-      <c r="T12">
-        <v>0.2588705326348821</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.03893966666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.116819</v>
-      </c>
-      <c r="I13">
-        <v>0.3437460459450155</v>
-      </c>
-      <c r="J13">
-        <v>0.3437460459450155</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.010082</v>
-      </c>
-      <c r="N13">
-        <v>0.030246</v>
-      </c>
-      <c r="O13">
-        <v>0.002767699122939702</v>
-      </c>
-      <c r="P13">
-        <v>0.002767699122939702</v>
-      </c>
-      <c r="Q13">
-        <v>0.0003925897193333333</v>
-      </c>
-      <c r="R13">
-        <v>0.003533307474</v>
-      </c>
-      <c r="S13">
-        <v>0.0009513856298760097</v>
-      </c>
-      <c r="T13">
-        <v>0.0009513856298760097</v>
+        <v>0.00348466448288986</v>
       </c>
     </row>
   </sheetData>
